--- a/Original/Tables/NewTU_Policies_ORG.xlsx
+++ b/Original/Tables/NewTU_Policies_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="24" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Policies" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4796" uniqueCount="745">
   <si>
     <t>ID</t>
   </si>
@@ -2231,13 +2231,73 @@
   </si>
   <si>
     <t>MaxItems</t>
+  </si>
+  <si>
+    <t>FlavorType</t>
+  </si>
+  <si>
+    <t>Flavor</t>
+  </si>
+  <si>
+    <t>HurryCostModifier</t>
+  </si>
+  <si>
+    <t>HURRY_POPULATION</t>
+  </si>
+  <si>
+    <t>HurryType</t>
+  </si>
+  <si>
+    <t>YieldChange</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_RECON</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_ARCHER</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_GUN</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_SIEGE</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_MOUNTED</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_ARMOR</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_NAVALMELEE</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_NAVALRANGED</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_SUBMARINE</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_CARRIER</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_HELICOPTER</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_FIGHTER</t>
+  </si>
+  <si>
+    <t>UNITCOMBAT_BOMBER</t>
+  </si>
+  <si>
+    <t>Modifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,8 +2328,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2336,6 +2404,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -2398,7 +2490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
@@ -2558,25 +2650,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2587,6 +2661,36 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -5068,6 +5172,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6699"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -5347,8 +5452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EX113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
@@ -26260,13 +26365,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6699"/>
+  </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26282,37 +26390,51 @@
     <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D2" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -26879,13 +27001,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6699"/>
+  </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26901,37 +27026,51 @@
     <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D2" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -27495,111 +27634,117 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="3.7109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="6" width="3.7109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="54.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="67" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" s="59" customFormat="1" ht="83.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>729</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>728</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>633</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>10</v>
       </c>
@@ -27684,85 +27829,85 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B41" s="77">
+      <c r="C41" s="71">
         <v>-25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>345</v>
       </c>
@@ -28105,7 +28250,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28785,10 +28930,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
@@ -29377,10 +29525,10 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30004,7 +30152,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30012,7 +30160,7 @@
     <col min="1" max="1" width="23.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
@@ -30023,11 +30171,11 @@
       <c r="B1" s="52" t="s">
         <v>635</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="75" t="s">
         <v>636</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>637</v>
+      <c r="D1" s="75" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -30827,7 +30975,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30838,11 +30986,11 @@
     <col min="4" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="59" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="59" customFormat="1" ht="65.25" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="52" t="s">
         <v>635</v>
       </c>
       <c r="C1" s="59" t="s">
@@ -31441,16 +31589,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31465,7 +31610,7 @@
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="52" t="s">
         <v>635</v>
       </c>
       <c r="C1" s="59" t="s">
@@ -32222,7 +32367,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32233,11 +32378,11 @@
     <col min="4" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="59" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="59" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="52" t="s">
         <v>635</v>
       </c>
       <c r="C1" s="59" t="s">
@@ -32830,13 +32975,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6699"/>
+  </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32853,37 +33001,51 @@
     <col min="10" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D2" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -33474,7 +33636,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33485,11 +33647,11 @@
     <col min="4" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="59" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="59" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="52" t="s">
         <v>635</v>
       </c>
       <c r="C1" s="59" t="s">
@@ -34867,10 +35029,10 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34882,17 +35044,17 @@
     <col min="5" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="59" customFormat="1" ht="75.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="59" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="52" t="s">
         <v>688</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="52" t="s">
         <v>636</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="73" t="s">
         <v>689</v>
       </c>
     </row>
@@ -35607,10 +35769,10 @@
   <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35621,14 +35783,14 @@
     <col min="4" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="59" customFormat="1" ht="75.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="59" customFormat="1" ht="65.25" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="52" t="s">
         <v>688</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="73" t="s">
         <v>654</v>
       </c>
     </row>
@@ -36239,10 +36401,13 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
@@ -36259,7 +36424,7 @@
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="72" t="s">
         <v>698</v>
       </c>
     </row>
@@ -36858,102 +37023,182 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="3.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="15" width="3.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="59" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="59" customFormat="1" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
         <v>699</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="80" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>700</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>732</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>733</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>734</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>735</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>736</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>737</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>738</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>739</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>740</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>741</v>
+      </c>
+      <c r="N2" s="83" t="s">
+        <v>742</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>10</v>
       </c>
@@ -37480,182 +37725,265 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="15" width="3.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="59" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>744</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="59" customFormat="1" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>699</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2" s="81" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="81" t="s">
+        <v>732</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>733</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>734</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>735</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>736</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>737</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>738</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>739</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>740</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>741</v>
+      </c>
+      <c r="N2" s="83" t="s">
+        <v>742</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="22">
+      <c r="C18" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>291</v>
       </c>
@@ -38102,13 +38430,16 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38122,10 +38453,10 @@
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="72" t="s">
         <v>699</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="72" t="s">
         <v>701</v>
       </c>
     </row>
@@ -38730,7 +39061,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38741,11 +39072,11 @@
     <col min="4" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="59" customFormat="1" ht="61.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="59" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="52" t="s">
         <v>702</v>
       </c>
       <c r="C1" s="59" t="s">
@@ -39421,10 +39752,10 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39435,11 +39766,11 @@
     <col min="4" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="59" customFormat="1" ht="61.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="59" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="52" t="s">
         <v>702</v>
       </c>
       <c r="C1" s="59" t="s">
@@ -40111,10 +40442,10 @@
   <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40776,13 +41107,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6699"/>
+  </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31:L33"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40799,37 +41133,51 @@
     <col min="10" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D2" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -41396,13 +41744,16 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42050,13 +42401,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6699"/>
+  </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42072,37 +42426,51 @@
     <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D2" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -42675,13 +43043,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6699"/>
+  </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42697,37 +43068,51 @@
     <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D2" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -43294,13 +43679,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6699"/>
+  </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43316,37 +43704,51 @@
     <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D2" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -43913,13 +44315,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44502,13 +44907,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
   <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44541,165 +44949,243 @@
     <col min="80" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="70" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
       <c r="B1" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="R1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="S1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="T1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="U1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="V1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="W1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="X1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="Z1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AB1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AE1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AF1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AG1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AH1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AI1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AJ1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AK1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AL1" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="AM1" s="76" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="67" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
+        <v>725</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>595</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C2" s="78" t="s">
         <v>596</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D2" s="78" t="s">
         <v>597</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E2" s="78" t="s">
         <v>598</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F2" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G2" s="78" t="s">
         <v>600</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H2" s="79" t="s">
         <v>601</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I2" s="77" t="s">
         <v>602</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J2" s="78" t="s">
         <v>603</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K2" s="78" t="s">
         <v>604</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L2" s="78" t="s">
         <v>605</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M2" s="79" t="s">
         <v>606</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N2" s="77" t="s">
         <v>607</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O2" s="78" t="s">
         <v>608</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P2" s="78" t="s">
         <v>609</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q2" s="79" t="s">
         <v>610</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R2" s="77" t="s">
         <v>611</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S2" s="78" t="s">
         <v>612</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T2" s="78" t="s">
         <v>613</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U2" s="78" t="s">
         <v>614</v>
       </c>
-      <c r="V1" s="68" t="s">
+      <c r="V2" s="78" t="s">
         <v>615</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="W2" s="78" t="s">
         <v>616</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="X2" s="78" t="s">
         <v>617</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="Y2" s="78" t="s">
         <v>618</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="Z2" s="78" t="s">
         <v>619</v>
       </c>
-      <c r="AA1" s="69" t="s">
+      <c r="AA2" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="AB1" s="67" t="s">
+      <c r="AB2" s="77" t="s">
         <v>621</v>
       </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AC2" s="78" t="s">
         <v>622</v>
       </c>
-      <c r="AD1" s="68" t="s">
+      <c r="AD2" s="78" t="s">
         <v>623</v>
       </c>
-      <c r="AE1" s="68" t="s">
+      <c r="AE2" s="78" t="s">
         <v>624</v>
       </c>
-      <c r="AF1" s="69" t="s">
+      <c r="AF2" s="79" t="s">
         <v>625</v>
       </c>
-      <c r="AG1" s="67" t="s">
+      <c r="AG2" s="77" t="s">
         <v>626</v>
       </c>
-      <c r="AH1" s="68" t="s">
+      <c r="AH2" s="78" t="s">
         <v>627</v>
       </c>
-      <c r="AI1" s="68" t="s">
+      <c r="AI2" s="78" t="s">
         <v>628</v>
       </c>
-      <c r="AJ1" s="69" t="s">
+      <c r="AJ2" s="79" t="s">
         <v>629</v>
       </c>
-      <c r="AK1" s="67" t="s">
+      <c r="AK2" s="77" t="s">
         <v>630</v>
       </c>
-      <c r="AL1" s="68" t="s">
+      <c r="AL2" s="78" t="s">
         <v>631</v>
       </c>
-      <c r="AM1" s="69" t="s">
+      <c r="AM2" s="79" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="73"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -45787,11 +46273,11 @@
       <c r="A112" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="B112" s="75"/>
-      <c r="O112" s="74">
+      <c r="B112" s="69"/>
+      <c r="O112" s="68">
         <v>8</v>
       </c>
-      <c r="V112" s="74">
+      <c r="V112" s="68">
         <v>25</v>
       </c>
     </row>
@@ -45799,11 +46285,11 @@
       <c r="A113" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="B113" s="75"/>
-      <c r="O113" s="74">
+      <c r="B113" s="69"/>
+      <c r="O113" s="68">
         <v>8</v>
       </c>
-      <c r="V113" s="74">
+      <c r="V113" s="68">
         <v>25</v>
       </c>
     </row>
@@ -45814,13 +46300,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6699"/>
+  </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -45836,37 +46325,51 @@
     <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="59" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D2" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">

--- a/Original/Tables/NewTU_Policies_ORG.xlsx
+++ b/Original/Tables/NewTU_Policies_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="24" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="24" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Policies" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4796" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4796" uniqueCount="744">
   <si>
     <t>ID</t>
   </si>
@@ -2288,9 +2288,6 @@
   </si>
   <si>
     <t>UNITCOMBAT_BOMBER</t>
-  </si>
-  <si>
-    <t>Modifier</t>
   </si>
 </sst>
 </file>
@@ -37727,11 +37724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37746,46 +37743,46 @@
         <v>593</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="K1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="L1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="M1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="N1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="O1" s="76" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="59" customFormat="1" ht="116.25" x14ac:dyDescent="0.25">
@@ -41749,7 +41746,7 @@
   </sheetPr>
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Original/Tables/NewTU_Policies_ORG.xlsx
+++ b/Original/Tables/NewTU_Policies_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="24" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Policies" sheetId="1" r:id="rId1"/>
@@ -5450,10 +5450,10 @@
   <dimension ref="A1:EX113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6170,9 +6170,6 @@
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
       <c r="C4" s="9" t="s">
         <v>201</v>
       </c>
@@ -6355,9 +6352,6 @@
     <row r="5" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>207</v>
@@ -6541,9 +6535,6 @@
     <row r="6" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>211</v>
@@ -6726,9 +6717,6 @@
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
       <c r="C7" s="9" t="s">
         <v>215</v>
       </c>
@@ -6911,9 +6899,6 @@
     <row r="8" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="9">
-        <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>219</v>
@@ -7097,9 +7082,6 @@
     <row r="9" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" s="34">
-        <v>43</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>14</v>
@@ -7272,9 +7254,6 @@
       <c r="A10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="34">
-        <v>6</v>
-      </c>
       <c r="C10" s="34" t="s">
         <v>9</v>
       </c>
@@ -7451,9 +7430,6 @@
     <row r="11" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B11" s="9">
-        <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>226</v>
@@ -7638,9 +7614,6 @@
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
-        <v>8</v>
-      </c>
       <c r="C12" s="9" t="s">
         <v>230</v>
       </c>
@@ -7823,9 +7796,6 @@
     <row r="13" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B13" s="9">
-        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>234</v>
@@ -8010,9 +7980,6 @@
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="9">
-        <v>10</v>
-      </c>
       <c r="C14" s="9" t="s">
         <v>238</v>
       </c>
@@ -8193,9 +8160,6 @@
     <row r="15" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B15" s="9">
-        <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>242</v>
@@ -8378,9 +8342,6 @@
       <c r="A16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="34">
-        <v>42</v>
-      </c>
       <c r="C16" s="34" t="s">
         <v>10</v>
       </c>
@@ -8551,9 +8512,6 @@
     <row r="17" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B17" s="34">
-        <v>12</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>17</v>
@@ -8735,9 +8693,6 @@
     <row r="18" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B18" s="9">
-        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>248</v>
@@ -8921,9 +8876,6 @@
     <row r="19" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B19" s="9">
-        <v>14</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>252</v>
@@ -9104,9 +9056,6 @@
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
       <c r="C20" s="9" t="s">
         <v>256</v>
       </c>
@@ -9288,9 +9237,6 @@
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9">
-        <v>16</v>
-      </c>
       <c r="C21" s="9" t="s">
         <v>260</v>
       </c>
@@ -9474,9 +9420,6 @@
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9">
-        <v>17</v>
-      </c>
       <c r="C22" s="9" t="s">
         <v>264</v>
       </c>
@@ -9657,9 +9600,6 @@
     <row r="23" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B23" s="34">
-        <v>44</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>18</v>
@@ -9829,9 +9769,6 @@
     <row r="24" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B24" s="34">
-        <v>18</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>21</v>
@@ -10008,9 +9945,6 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9">
-        <v>19</v>
-      </c>
       <c r="C25" s="9" t="s">
         <v>270</v>
       </c>
@@ -10190,9 +10124,6 @@
       <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9">
-        <v>20</v>
-      </c>
       <c r="C26" s="9" t="s">
         <v>274</v>
       </c>
@@ -10373,9 +10304,6 @@
     <row r="27" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B27" s="9">
-        <v>21</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>278</v>
@@ -10556,9 +10484,6 @@
       <c r="A28" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="9">
-        <v>22</v>
-      </c>
       <c r="C28" s="9" t="s">
         <v>282</v>
       </c>
@@ -10742,9 +10667,6 @@
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="9">
-        <v>23</v>
-      </c>
       <c r="C29" s="9" t="s">
         <v>286</v>
       </c>
@@ -10925,9 +10847,6 @@
     <row r="30" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B30" s="34">
-        <v>45</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>22</v>
@@ -11098,9 +11017,6 @@
       <c r="A31" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="34">
-        <v>24</v>
-      </c>
       <c r="C31" s="34" t="s">
         <v>27</v>
       </c>
@@ -11278,9 +11194,6 @@
       <c r="A32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="9">
-        <v>25</v>
-      </c>
       <c r="C32" s="9" t="s">
         <v>291</v>
       </c>
@@ -11461,9 +11374,6 @@
     <row r="33" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B33" s="9">
-        <v>26</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>295</v>
@@ -11645,9 +11555,6 @@
     <row r="34" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B34" s="9">
-        <v>27</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>299</v>
@@ -11829,9 +11736,6 @@
     <row r="35" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B35" s="9">
-        <v>28</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>303</v>
@@ -12014,9 +11918,6 @@
       <c r="A36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9">
-        <v>29</v>
-      </c>
       <c r="C36" s="9" t="s">
         <v>307</v>
       </c>
@@ -12197,9 +12098,6 @@
     <row r="37" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B37" s="34">
-        <v>46</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>28</v>
@@ -12369,9 +12267,6 @@
     <row r="38" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B38" s="34">
-        <v>30</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>36</v>
@@ -12548,9 +12443,6 @@
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="9">
-        <v>31</v>
-      </c>
       <c r="C39" s="9" t="s">
         <v>313</v>
       </c>
@@ -12730,9 +12622,6 @@
       <c r="A40" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="9">
-        <v>32</v>
-      </c>
       <c r="C40" s="9" t="s">
         <v>319</v>
       </c>
@@ -12917,9 +12806,6 @@
     <row r="41" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B41" s="9">
-        <v>33</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>323</v>
@@ -13100,9 +12986,6 @@
       <c r="A42" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="9">
-        <v>34</v>
-      </c>
       <c r="C42" s="9" t="s">
         <v>327</v>
       </c>
@@ -13285,9 +13168,6 @@
     <row r="43" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B43" s="9">
-        <v>35</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>331</v>
@@ -13469,9 +13349,6 @@
     <row r="44" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B44" s="34">
-        <v>47</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>37</v>
@@ -13640,9 +13517,6 @@
       <c r="A45" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="34">
-        <v>36</v>
-      </c>
       <c r="C45" s="34" t="s">
         <v>45</v>
       </c>
@@ -13819,9 +13693,6 @@
     <row r="46" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B46" s="9">
-        <v>37</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>337</v>
@@ -14002,9 +13873,6 @@
       <c r="A47" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="9">
-        <v>38</v>
-      </c>
       <c r="C47" s="9" t="s">
         <v>341</v>
       </c>
@@ -14185,9 +14053,6 @@
     <row r="48" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B48" s="9">
-        <v>39</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>345</v>
@@ -14368,9 +14233,6 @@
       <c r="A49" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="9">
-        <v>40</v>
-      </c>
       <c r="C49" s="9" t="s">
         <v>349</v>
       </c>
@@ -14550,9 +14412,6 @@
       <c r="A50" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="9">
-        <v>41</v>
-      </c>
       <c r="C50" s="9" t="s">
         <v>353</v>
       </c>
@@ -14735,9 +14594,6 @@
     <row r="51" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B51" s="34">
-        <v>48</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>46</v>
@@ -14910,9 +14766,6 @@
       <c r="A52" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="34">
-        <v>49</v>
-      </c>
       <c r="C52" s="34" t="s">
         <v>32</v>
       </c>
@@ -15093,9 +14946,6 @@
     <row r="53" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B53" s="9">
-        <v>50</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>359</v>
@@ -15276,9 +15126,6 @@
       <c r="A54" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="9">
-        <v>51</v>
-      </c>
       <c r="C54" s="9" t="s">
         <v>363</v>
       </c>
@@ -15459,9 +15306,6 @@
     <row r="55" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B55" s="9">
-        <v>52</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>367</v>
@@ -15645,9 +15489,6 @@
     <row r="56" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B56" s="9">
-        <v>53</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>371</v>
@@ -15830,9 +15671,6 @@
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="9">
-        <v>54</v>
-      </c>
       <c r="C57" s="9" t="s">
         <v>375</v>
       </c>
@@ -16018,9 +15856,6 @@
       <c r="A58" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="34">
-        <v>55</v>
-      </c>
       <c r="C58" s="34" t="s">
         <v>33</v>
       </c>
@@ -16189,9 +16024,6 @@
     <row r="59" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B59" s="34">
-        <v>56</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>41</v>
@@ -16368,9 +16200,6 @@
       <c r="A60" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="9">
-        <v>57</v>
-      </c>
       <c r="C60" s="9" t="s">
         <v>380</v>
       </c>
@@ -16550,9 +16379,6 @@
       <c r="A61" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="9">
-        <v>58</v>
-      </c>
       <c r="C61" s="9" t="s">
         <v>384</v>
       </c>
@@ -16732,9 +16558,6 @@
       <c r="A62" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="9">
-        <v>59</v>
-      </c>
       <c r="C62" s="9" t="s">
         <v>388</v>
       </c>
@@ -16914,9 +16737,6 @@
       <c r="A63" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="9">
-        <v>60</v>
-      </c>
       <c r="C63" s="9" t="s">
         <v>392</v>
       </c>
@@ -17099,9 +16919,6 @@
     <row r="64" spans="1:154" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B64" s="9">
-        <v>61</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>396</v>
@@ -17283,9 +17100,6 @@
     <row r="65" spans="1:154" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="B65" s="34">
-        <v>62</v>
       </c>
       <c r="C65" s="34" t="s">
         <v>42</v>
@@ -17454,9 +17268,6 @@
       <c r="A66" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="16">
-        <v>63</v>
-      </c>
       <c r="C66" s="16" t="s">
         <v>400</v>
       </c>
@@ -17639,9 +17450,6 @@
     <row r="67" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B67" s="16">
-        <v>64</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>404</v>
@@ -17824,9 +17632,6 @@
       <c r="A68" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="16">
-        <v>65</v>
-      </c>
       <c r="C68" s="16" t="s">
         <v>408</v>
       </c>
@@ -18010,9 +17815,6 @@
       <c r="A69" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="16">
-        <v>66</v>
-      </c>
       <c r="C69" s="16" t="s">
         <v>412</v>
       </c>
@@ -18197,9 +17999,6 @@
     <row r="70" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B70" s="16">
-        <v>67</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>416</v>
@@ -18383,9 +18182,6 @@
     <row r="71" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B71" s="16">
-        <v>68</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>420</v>
@@ -18568,9 +18364,6 @@
       <c r="A72" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="16">
-        <v>69</v>
-      </c>
       <c r="C72" s="16" t="s">
         <v>424</v>
       </c>
@@ -18752,9 +18545,6 @@
       <c r="A73" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="16">
-        <v>70</v>
-      </c>
       <c r="C73" s="16" t="s">
         <v>428</v>
       </c>
@@ -18938,9 +18728,6 @@
       <c r="A74" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="16">
-        <v>71</v>
-      </c>
       <c r="C74" s="16" t="s">
         <v>432</v>
       </c>
@@ -19124,9 +18911,6 @@
       <c r="A75" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="16">
-        <v>72</v>
-      </c>
       <c r="C75" s="16" t="s">
         <v>436</v>
       </c>
@@ -19311,9 +19095,6 @@
     <row r="76" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B76" s="16">
-        <v>73</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>440</v>
@@ -19496,9 +19277,6 @@
       <c r="A77" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="16">
-        <v>74</v>
-      </c>
       <c r="C77" s="16" t="s">
         <v>444</v>
       </c>
@@ -19683,9 +19461,6 @@
     <row r="78" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B78" s="16">
-        <v>75</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>448</v>
@@ -19868,9 +19643,6 @@
       <c r="A79" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="16">
-        <v>76</v>
-      </c>
       <c r="C79" s="16" t="s">
         <v>452</v>
       </c>
@@ -20053,9 +19825,6 @@
     <row r="80" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B80" s="16">
-        <v>77</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>456</v>
@@ -20240,9 +20009,6 @@
       <c r="A81" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="16">
-        <v>78</v>
-      </c>
       <c r="C81" s="16" t="s">
         <v>460</v>
       </c>
@@ -20425,9 +20191,6 @@
     <row r="82" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B82" s="16">
-        <v>79</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>464</v>
@@ -20610,9 +20373,6 @@
       <c r="A83" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="16">
-        <v>80</v>
-      </c>
       <c r="C83" s="16" t="s">
         <v>468</v>
       </c>
@@ -20795,9 +20555,6 @@
     <row r="84" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B84" s="16">
-        <v>81</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>472</v>
@@ -20980,9 +20737,6 @@
       <c r="A85" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="16">
-        <v>82</v>
-      </c>
       <c r="C85" s="16" t="s">
         <v>476</v>
       </c>
@@ -21165,9 +20919,6 @@
     <row r="86" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B86" s="16">
-        <v>83</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>480</v>
@@ -21350,9 +21101,6 @@
       <c r="A87" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="16">
-        <v>84</v>
-      </c>
       <c r="C87" s="16" t="s">
         <v>484</v>
       </c>
@@ -21534,9 +21282,6 @@
       <c r="A88" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="16">
-        <v>85</v>
-      </c>
       <c r="C88" s="16" t="s">
         <v>488</v>
       </c>
@@ -21718,9 +21463,6 @@
       <c r="A89" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="16">
-        <v>86</v>
-      </c>
       <c r="C89" s="16" t="s">
         <v>492</v>
       </c>
@@ -21903,9 +21645,6 @@
     <row r="90" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B90" s="16">
-        <v>87</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>496</v>
@@ -22089,9 +21828,6 @@
     <row r="91" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B91" s="16">
-        <v>88</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>500</v>
@@ -22274,9 +22010,6 @@
       <c r="A92" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="16">
-        <v>89</v>
-      </c>
       <c r="C92" s="16" t="s">
         <v>504</v>
       </c>
@@ -22458,9 +22191,6 @@
       <c r="A93" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="16">
-        <v>90</v>
-      </c>
       <c r="C93" s="16" t="s">
         <v>508</v>
       </c>
@@ -22643,9 +22373,6 @@
     <row r="94" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B94" s="16">
-        <v>91</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>512</v>
@@ -22831,9 +22558,6 @@
     <row r="95" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B95" s="16">
-        <v>92</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>517</v>
@@ -23020,9 +22744,6 @@
       <c r="A96" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="16">
-        <v>93</v>
-      </c>
       <c r="C96" s="16" t="s">
         <v>521</v>
       </c>
@@ -23206,9 +22927,6 @@
       <c r="A97" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="16">
-        <v>94</v>
-      </c>
       <c r="C97" s="16" t="s">
         <v>525</v>
       </c>
@@ -23391,9 +23109,6 @@
     <row r="98" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B98" s="16">
-        <v>95</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>529</v>
@@ -23577,9 +23292,6 @@
     <row r="99" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B99" s="16">
-        <v>96</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>533</v>
@@ -23762,9 +23474,6 @@
       <c r="A100" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="16">
-        <v>97</v>
-      </c>
       <c r="C100" s="16" t="s">
         <v>537</v>
       </c>
@@ -23947,9 +23656,6 @@
     <row r="101" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B101" s="16">
-        <v>98</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>541</v>
@@ -24132,9 +23838,6 @@
       <c r="A102" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="16">
-        <v>99</v>
-      </c>
       <c r="C102" s="16" t="s">
         <v>545</v>
       </c>
@@ -24316,9 +24019,6 @@
       <c r="A103" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="16">
-        <v>100</v>
-      </c>
       <c r="C103" s="16" t="s">
         <v>549</v>
       </c>
@@ -24500,9 +24200,6 @@
       <c r="A104" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="16">
-        <v>101</v>
-      </c>
       <c r="C104" s="16" t="s">
         <v>553</v>
       </c>
@@ -24684,9 +24381,6 @@
       <c r="A105" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="16">
-        <v>102</v>
-      </c>
       <c r="C105" s="16" t="s">
         <v>557</v>
       </c>
@@ -24869,9 +24563,6 @@
     <row r="106" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B106" s="16">
-        <v>103</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>561</v>
@@ -25056,9 +24747,6 @@
       <c r="A107" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="16">
-        <v>104</v>
-      </c>
       <c r="C107" s="16" t="s">
         <v>565</v>
       </c>
@@ -25243,9 +24931,6 @@
     <row r="108" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B108" s="16">
-        <v>105</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>569</v>
@@ -25429,9 +25114,6 @@
     <row r="109" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B109" s="16">
-        <v>106</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>573</v>
@@ -25617,9 +25299,6 @@
     <row r="110" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B110" s="16">
-        <v>107</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>577</v>
@@ -25805,9 +25484,6 @@
     <row r="111" spans="1:154" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B111" s="16">
-        <v>108</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>581</v>
@@ -25990,9 +25666,6 @@
       <c r="A112" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="16">
-        <v>109</v>
-      </c>
       <c r="C112" s="16" t="s">
         <v>585</v>
       </c>
@@ -26174,9 +25847,6 @@
       <c r="A113" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="16">
-        <v>110</v>
-      </c>
       <c r="C113" s="16" t="s">
         <v>586</v>
       </c>
@@ -33629,11 +33299,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34395,7 +34065,7 @@
         <v>665</v>
       </c>
       <c r="C120" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -37724,7 +37394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
